--- a/数据表设计.xlsx
+++ b/数据表设计.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studentApp\studentAppServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C507B-1DE1-460B-A033-8BAB958C1A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考试网站表" sheetId="1" r:id="rId1"/>
     <sheet name="课程学习映射表" sheetId="2" r:id="rId2"/>
+    <sheet name="tokens" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>wid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,13 +178,21 @@
   </si>
   <si>
     <t>first_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -512,27 +530,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">NOW()</f>
-        <v>44696.522546527776</v>
+        <v>44698.368587500001</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -597,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -618,7 +636,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
-        <v>44696.522546527776</v>
+        <v>44698.368587500001</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -630,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -651,7 +669,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44696.522546527776</v>
+        <v>44698.368587384262</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -663,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -684,7 +702,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44696.522546527776</v>
+        <v>44698.368587384262</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -704,22 +722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -748,7 +766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,6 +794,39 @@
       </c>
       <c r="I2" s="4">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CDF11-2FFD-4C30-9CF1-28B0B48F7242}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/数据表设计.xlsx
+++ b/数据表设计.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studentApp\studentAppServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C507B-1DE1-460B-A033-8BAB958C1A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8912AC9C-8FD4-4E2A-989F-3C73A25811A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="945" windowWidth="18270" windowHeight="9300" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考试网站表" sheetId="1" r:id="rId1"/>
     <sheet name="课程学习映射表" sheetId="2" r:id="rId2"/>
     <sheet name="tokens" sheetId="3" r:id="rId3"/>
+    <sheet name="links" sheetId="4" r:id="rId4"/>
+    <sheet name="provinces" sheetId="5" r:id="rId5"/>
+    <sheet name="wxImgs" sheetId="6" r:id="rId6"/>
+    <sheet name="notices" sheetId="7" r:id="rId7"/>
+    <sheet name="OCRs" sheetId="8" r:id="rId8"/>
+    <sheet name="student_study_project" sheetId="9" r:id="rId9"/>
+    <sheet name="sudent_time_content" sheetId="11" r:id="rId10"/>
+    <sheet name="student_time_exercise" sheetId="12" r:id="rId11"/>
+    <sheet name="student_collect_project" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>wid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +195,70 @@
   </si>
   <si>
     <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sspid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +676,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">NOW()</f>
-        <v>44698.368587500001</v>
+        <v>44708.468655671299</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -636,7 +709,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
-        <v>44698.368587500001</v>
+        <v>44708.468655671299</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -669,7 +742,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44698.368587384262</v>
+        <v>44708.468655671299</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -702,7 +775,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44698.368587384262</v>
+        <v>44708.468655671299</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -718,6 +791,129 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C3990-3059-4371-93EB-6FF375E5E26C}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914834F4-B6F5-428A-B404-75310B6A6364}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC86B76-DB01-4B0A-94F2-EEBB7933914B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -806,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CDF11-2FFD-4C30-9CF1-28B0B48F7242}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -833,4 +1029,241 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B507B-7F2D-4681-BC05-004599FC7B73}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0432A-ADC8-4F39-8041-1AB251B2E6CD}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196DB4B8-9DC2-4515-8A83-D5A2FDC381DE}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE6775-5270-4833-997D-7B852ABDCED9}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BCDA1B-8B8E-4020-926A-1BCD20F8D3A3}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176FD0AD-2C37-47D1-95F2-8F7B237ED0B4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据表设计.xlsx
+++ b/数据表设计.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studentApp\studentAppServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8912AC9C-8FD4-4E2A-989F-3C73A25811A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="945" windowWidth="18270" windowHeight="9300" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="948" windowWidth="18276" windowHeight="9300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="考试网站表" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="student_time_exercise" sheetId="12" r:id="rId11"/>
     <sheet name="student_collect_project" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -603,27 +602,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,7 +675,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">NOW()</f>
-        <v>44708.468655671299</v>
+        <v>44709.519644444445</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -688,7 +687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -709,7 +708,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G5" ca="1" si="0">NOW()</f>
-        <v>44708.468655671299</v>
+        <v>44709.519644444445</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -721,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -742,7 +741,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44708.468655671299</v>
+        <v>44709.519644444445</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -754,7 +753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -775,7 +774,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44708.468655671299</v>
+        <v>44709.519644444445</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -795,25 +794,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C3990-3059-4371-93EB-6FF375E5E26C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -843,25 +842,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914834F4-B6F5-428A-B404-75310B6A6364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -891,16 +890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC86B76-DB01-4B0A-94F2-EEBB7933914B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -918,22 +917,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="8" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -962,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,19 +998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CDF11-2FFD-4C30-9CF1-28B0B48F7242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1032,16 +1031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B507B-7F2D-4681-BC05-004599FC7B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1083,16 +1082,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0432A-ADC8-4F39-8041-1AB251B2E6CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1122,16 +1121,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196DB4B8-9DC2-4515-8A83-D5A2FDC381DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,16 +1163,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE6775-5270-4833-997D-7B852ABDCED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1203,16 +1202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BCDA1B-8B8E-4020-926A-1BCD20F8D3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1242,16 +1241,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176FD0AD-2C37-47D1-95F2-8F7B237ED0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
